--- a/data-penerimaan-2020.xlsx
+++ b/data-penerimaan-2020.xlsx
@@ -3,15 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B1AB5-BE20-4985-8EE2-2D06D924C7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19437BF1-3393-4E15-AE81-14D5949E86A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
     <sheet name="capaian" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,6 +114,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -161,6 +177,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +543,7 @@
     <col min="11" max="11" width="18.21875" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -567,163 +591,164 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="B2" s="5">
+        <v>235440000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>248000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>216500000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>131400000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>136600000</v>
+      </c>
+      <c r="G2" s="5">
+        <v>186700000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>224200000</v>
+      </c>
+      <c r="I2" s="5">
+        <v>242700000</v>
+      </c>
+      <c r="J2" s="5">
+        <v>225500000</v>
+      </c>
+      <c r="K2" s="5">
+        <v>228300000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>241900000</v>
+      </c>
+      <c r="M2" s="5">
+        <f>245200000+27245000</f>
+        <v>272445000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="B3" s="5">
+        <v>45950000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>48400000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>42250000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>25650000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>26650000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>36450000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>43750000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>47350000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>44000000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44550000</v>
+      </c>
+      <c r="L3" s="5">
+        <v>47200000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>47850000</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+      <c r="B4" s="5">
+        <v>27570000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>29040000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>25350000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15390000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15990000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>21870000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>26250000</v>
+      </c>
+      <c r="I4" s="5">
+        <v>28410000</v>
+      </c>
+      <c r="J4" s="5">
+        <v>26400000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>26730000</v>
+      </c>
+      <c r="L4" s="5">
+        <v>28320000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>28710000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -731,81 +756,81 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="B6" s="5">
+        <v>73520000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>77440000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>67600000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>41040000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42640000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>58320000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>70000000</v>
+      </c>
+      <c r="I6" s="5">
+        <v>75760000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>70400000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>71280000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>75520000</v>
+      </c>
+      <c r="M6" s="5">
+        <v>76560000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -813,123 +838,123 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+      <c r="B8" s="5">
+        <v>33080000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>34850000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>30420000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>18470000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>19190000</v>
+      </c>
+      <c r="G8" s="5">
+        <v>26240000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>31500000</v>
+      </c>
+      <c r="I8" s="5">
+        <v>34090000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>31680000</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32050000</v>
+      </c>
+      <c r="L8" s="5">
+        <v>33980000</v>
+      </c>
+      <c r="M8" s="5">
+        <v>34560000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="B9" s="5">
+        <v>36760000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>38720000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>33800000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20520000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>21320000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>29160000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>35000000</v>
+      </c>
+      <c r="I9" s="5">
+        <v>37880000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>35200000</v>
+      </c>
+      <c r="K9" s="5">
+        <v>35640000</v>
+      </c>
+      <c r="L9" s="5">
+        <v>37760000</v>
+      </c>
+      <c r="M9" s="5">
+        <v>38280000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+      <c r="B10" s="5">
+        <v>4595000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4840000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4225000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2565000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2665000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3645000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4375000</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4735000</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4400000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4455000</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4720000</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4785000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1136,6 +1161,138 @@
       <c r="M15">
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1147,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:M16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,163 +1366,163 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>198815000</v>
       </c>
-      <c r="C2" s="1">
-        <v>225650000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123360000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>31035000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>23110000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>128767500</v>
-      </c>
-      <c r="H2" s="1">
-        <v>159935000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>175258750</v>
-      </c>
-      <c r="J2" s="1">
-        <v>178862500</v>
-      </c>
-      <c r="K2" s="1">
-        <v>175225000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>193810000</v>
-      </c>
-      <c r="M2" s="1">
-        <v>38711250</v>
+      <c r="C2" s="3">
+        <v>227410000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>121600000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>29335000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>23010000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>104257500</v>
+      </c>
+      <c r="H2" s="3">
+        <v>172215000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>145783750</v>
+      </c>
+      <c r="J2" s="3">
+        <v>167587500</v>
+      </c>
+      <c r="K2" s="3">
+        <v>175110000</v>
+      </c>
+      <c r="L2" s="3">
+        <v>206590000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>80811250</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>24605000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>22905000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>48400000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>25875000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>91045000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>264725000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>344375000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>39800000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>40375000</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>29005000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>18505000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>48820000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>25560000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>90625000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>230625000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>297150000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>42025000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>114800000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8740000</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>28915000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>22185000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>12880000</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>1515000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>2015000</v>
       </c>
-      <c r="H4" s="1">
-        <v>10200000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>22780000</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="H4" s="3">
+        <v>11850000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>21130000</v>
+      </c>
+      <c r="J4" s="3">
         <v>23965000</v>
       </c>
-      <c r="K4" s="1">
-        <v>28230000</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="3">
+        <v>26910000</v>
+      </c>
+      <c r="L4" s="3">
         <v>33050000</v>
       </c>
-      <c r="M4" s="1">
-        <v>240000</v>
+      <c r="M4" s="3">
+        <v>1695000</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1373,81 +1530,81 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>43650000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>55500000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>48900000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10200000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>39700000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>54100000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>125000000</v>
+      </c>
+      <c r="K6" s="3">
+        <v>149200000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>249800000</v>
+      </c>
+      <c r="M6" s="3">
+        <v>97000000</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1455,81 +1612,81 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
+      <c r="B8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>49920000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3435000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>19500000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>36000000</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="B9" s="4">
+        <v>960000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>500000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1537,40 +1694,40 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14000000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33265000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1619,40 +1776,40 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1660,40 +1817,40 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1701,40 +1858,40 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1742,40 +1899,40 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data-penerimaan-2020.xlsx
+++ b/data-penerimaan-2020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19437BF1-3393-4E15-AE81-14D5949E86A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEF9F7-7F62-45C2-90F7-8AA9F07696DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,21 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +517,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M10"/>
+      <selection activeCell="M15" sqref="B2:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,41 +582,40 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>235440000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>248000000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>216500000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>131400000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>136600000</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>186700000</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>224200000</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>242700000</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>225500000</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>228300000</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>241900000</v>
       </c>
-      <c r="M2" s="5">
-        <f>245200000+27245000</f>
+      <c r="M2" s="2">
         <v>272445000</v>
       </c>
     </row>
@@ -633,40 +623,40 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>45950000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>48400000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>42250000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>25650000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>26650000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>36450000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>43750000</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>47350000</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>44000000</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <v>44550000</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>47200000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <v>47850000</v>
       </c>
     </row>
@@ -674,40 +664,40 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>27570000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>29040000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>25350000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>15390000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>15990000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>21870000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>26250000</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>28410000</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>26400000</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>26730000</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>28320000</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>28710000</v>
       </c>
     </row>
@@ -715,40 +705,40 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -756,40 +746,40 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>73520000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>77440000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>67600000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>41040000</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>42640000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>58320000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>70000000</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>75760000</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>70400000</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>71280000</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>75520000</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>76560000</v>
       </c>
     </row>
@@ -797,40 +787,40 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -838,40 +828,40 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>33080000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>34850000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>30420000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>18470000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>19190000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>26240000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>31500000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>34090000</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>31680000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <v>32050000</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>33980000</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <v>34560000</v>
       </c>
     </row>
@@ -879,40 +869,40 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>36760000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>38720000</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>33800000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>20520000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>21320000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>29160000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>35000000</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>37880000</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>35200000</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>35640000</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>37760000</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="2">
         <v>38280000</v>
       </c>
     </row>
@@ -920,40 +910,40 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>4595000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>4840000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>4225000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>2565000</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>2665000</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>3645000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <v>4375000</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <v>4735000</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>4400000</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>4455000</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="2">
         <v>4720000</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="2">
         <v>4785000</v>
       </c>
     </row>
@@ -961,40 +951,40 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1002,40 +992,40 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1043,40 +1033,40 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1084,40 +1074,40 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1125,174 +1115,186 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K35" s="5"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K36" s="5"/>
+      <c r="K36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,6 +1321,7 @@
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1653,40 +1656,40 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>960000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>500000</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1735,40 +1738,40 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1858,40 +1861,40 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1899,56 +1902,92 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="3">
+        <f t="shared" ref="B16:M16" si="0">SUM(B2:B15)</f>
+        <v>303345000</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>340100000</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>265465000</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>29335000</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>34725000</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>136932500</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>334390000</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>501558750</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>617137500</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>397245000</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="0"/>
+        <v>623740000</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="0"/>
+        <v>224246250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
